--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="3660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,19 +51,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行情况</t>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题与后续计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完善改进之前项目；
+2.导入公共数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表的生成出现问题，继续学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.解决数据库表问题；
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决数据库表问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Git指令的应用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Git指令的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Git指令的应用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师要求进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师要求进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改库的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改库的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的来说就是上课听讲不认真，继续修改处理好问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完善改进之前项目；
+2.导入公共数据库；
+3.数据库表的生成；
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.根据要求修改  在src/main/java里建立两个包，并创建相应的类；
+2.在src/test/java里建立两个包，并建立类；
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根据要求修改  在src/main/java里建立两个包，并创建相应的类；
+2.在src/test/java里建立两个包，并建立类；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，听从组长要求，完成任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,6 +159,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,12 +198,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,44 +543,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43222</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,94 +38,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.领域实体改造 @table, @entity；
-2.数据库表自动生成；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:00-21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完善改进之前项目；
-2.导入公共数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库表的生成出现问题，继续学习。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.解决数据库表问题；
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决数据库表问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习Git指令的应用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习Git指令的应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习Git指令的应用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据老师要求进行修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据老师要求进行修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改库的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改库的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总的来说就是上课听讲不认真，继续修改处理好问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,9 +57,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.根据要求修改  在src/main/java里建立两个包，并创建相应的类；
-2.在src/test/java里建立两个包，并建立类；
-</t>
+    <t>1.完善改进之前项目；
+2.导入公共数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表的生成出现问题，继续学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.解决数据库表问题；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决数据库表问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Git指令的应用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Git指令的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Git指令的应用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师要求进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师要求进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改库的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师要求进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的来说就是上课听讲不认真，继续修改处理好问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,7 +123,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.根据要求修改  在src/main/java里建立两个包，并创建相应的类；
+2.在src/test/java里建立两个包，并建立类；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成，听从组长要求，完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,9 +144,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,19 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -525,13 +501,104 @@
     </row>
     <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43216</v>
+        <v>43220</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -543,138 +610,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43221</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43222</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43223</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43224</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43239</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="3660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,105 +38,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.领域实体改造 @table, @entity；
+2.数据库表自动生成；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>19:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>问题与后续计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完善改进之前项目；
-2.导入公共数据库；
-3.数据库表的生成；
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完善改进之前项目；
-2.导入公共数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库表的生成出现问题，继续学习。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.解决数据库表问题；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决数据库表问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习Git指令的应用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习Git指令的应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习Git指令的应用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据老师要求进行修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据老师要求进行修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改库的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据老师要求进行修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总的来说就是上课听讲不认真，继续修改处理好问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.根据要求修改  在src/main/java里建立两个包，并创建相应的类；
-2.在src/test/java里建立两个包，并建立类；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.根据要求修改  在src/main/java里建立两个包，并创建相应的类；
-2.在src/test/java里建立两个包，并建立类；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成，听从组长要求，完成任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行情况</t>
+    <t>打得动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,13 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -467,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -501,104 +431,13 @@
     </row>
     <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43220</v>
+        <v>43216</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43221</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43222</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43224</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43239</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -610,37 +449,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,7 +67,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打得动</t>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完善改进之前项目；
+2.导入公共数据库；
+3.数据库表的生成；
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.解决数据库表问题；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Git指令的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师要求进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改库的问题</t>
+  </si>
+  <si>
+    <t>1.根据要求修改  在src/main/java里建立两个包，并创建相应的类；
+2.在src/test/java里建立两个包，并建立类；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完善改进之前项目；
+2.导入公共数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决数据库表问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Git指令的应用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师要求进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改库的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根据要求修改  在src/main/java里建立两个包，并创建相应的类；
+2.在src/test/java里建立两个包，并建立类；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表的生成出现问题，继续学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据老师要求进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的来说就是上课听讲不认真，继续修改处理好问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，听从组长要求，完成任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,6 +520,109 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -451,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -479,9 +663,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>完成，听从组长要求，完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,6 +667,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,22 @@
   </si>
   <si>
     <t>原计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再一次修改dao包内容，并提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再一次修改dao包内容，并提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合小组，完成任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,6 +644,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -639,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,22 @@
   </si>
   <si>
     <t>再一次修改dao包内容，并提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再一次修改service包内容，并提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再一次修改service包内容，并提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合小组，完成任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,7 +674,24 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -184,7 +184,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配合小组，完成任务</t>
+    <t>配合小组，完成任 务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/log/log_201508030330_panshaoqian.xlsx
+++ b/doc/log/log_201508030330_panshaoqian.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,22 @@
   </si>
   <si>
     <t>配合小组，完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改并上传web包的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改并上传web包的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合小组，完成任 务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -691,7 +707,24 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
